--- a/podi/data/weo_gcam_dict.xlsx
+++ b/podi/data/weo_gcam_dict.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PD21/positive-disruption/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PD21/positive-disruption/podi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9539AD-A78A-7747-ADB3-CB2141B84162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA583C2C-9F2D-C24C-9C02-BEED4CFC8CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CEDCD615-163B-E44B-8233-987F67EF32ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEO.GCAM Defin" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Regions" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -24,8 +24,10 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metrics!$A$1:$C$1</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="a_2">[1]ConservAg_HolisticGraze_Scurve!#REF!</definedName>
     <definedName name="a_3">#REF!</definedName>
@@ -228,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>TFC</t>
   </si>
@@ -435,6 +437,87 @@
   </si>
   <si>
     <t>GCAM Value</t>
+  </si>
+  <si>
+    <t>WEO Region</t>
+  </si>
+  <si>
+    <t>GCAM Region</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CSAM</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>SAFR</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>EURASIA</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>ASIAPAC</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>NonOECD</t>
+  </si>
+  <si>
+    <t>DevelopingECO</t>
+  </si>
+  <si>
+    <t>AdvancedECO</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>OECD90</t>
   </si>
 </sst>
 </file>
@@ -2305,8 +2388,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,7 +2972,203 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{DC5678D0-6948-EB46-A6C7-0158689E89DD}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C25142-0366-6C4B-B26C-D7656B7137D3}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>